--- a/public/Work Activities_zhuoran.wang.xlsx
+++ b/public/Work Activities_zhuoran.wang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunmyung.kim\workspace\React\exbon-daily-report\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBBEA84-E4F3-4BA7-8D2D-E739433E6371}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55710468-32A3-4AA7-9D24-9C2ECB355891}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Report" sheetId="135" r:id="rId1"/>
@@ -116,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -149,14 +149,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -849,12 +841,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -885,56 +913,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1440,7 +1432,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1457,101 +1449,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="75"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="80"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="79" t="s">
+      <c r="F3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="80"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="81"/>
-      <c r="G4" s="82"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="61"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="62" t="s">
+      <c r="F6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="63"/>
+      <c r="G6" s="75"/>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="57"/>
-      <c r="B7" s="59"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="28" t="s">
         <v>14</v>
       </c>
@@ -1559,8 +1551,8 @@
         <v>18</v>
       </c>
       <c r="E7" s="48"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26"/>
@@ -1636,10 +1628,10 @@
       <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="72"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="15">
         <f>SUM(C8:C15)</f>
         <v>0</v>
@@ -1653,15 +1645,15 @@
       <c r="P16" s="19"/>
     </row>
     <row r="17" spans="1:14" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
       <c r="N17" s="6"/>
     </row>
     <row r="18" spans="1:14" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1703,15 +1695,15 @@
       <c r="G21" s="41"/>
     </row>
     <row r="22" spans="1:14" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:14" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,15 +1744,15 @@
       <c r="G26" s="41"/>
     </row>
     <row r="27" spans="1:14" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="70"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
       <c r="N27" s="6"/>
     </row>
     <row r="28" spans="1:14" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
